--- a/subtable/按分量制拆分的子表/组手/U11男子中级组-30KG.xlsx
+++ b/subtable/按分量制拆分的子表/组手/U11男子中级组-30KG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>赢的次数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>分量制</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>型</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>无差</t>
         </is>
@@ -491,27 +496,30 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>350925201503010073</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>31kg</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>U11男子中级组-30KG</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>U11中级组男子个人型</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,25 +537,28 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>120105201409110172</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>31</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>U11男子中级组-30KG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>U11中级组男子个人型</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2014年男子组无差</t>
         </is>
@@ -569,21 +580,24 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>120105201406280117</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>28</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>U11男子中级组-30KG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>2014年男子组无差</t>
         </is>
@@ -605,21 +619,24 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>120111201412310017</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>31</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>U11男子中级组-30KG</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
